--- a/tidal/locations.xlsx
+++ b/tidal/locations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10680" windowWidth="16800" windowHeight="10240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Location</t>
   </si>
@@ -60,6 +60,120 @@
   </si>
   <si>
     <t>Dover</t>
+  </si>
+  <si>
+    <t>Felixstowe</t>
+  </si>
+  <si>
+    <t>Fishguard</t>
+  </si>
+  <si>
+    <t>Harwich</t>
+  </si>
+  <si>
+    <t>Heysham</t>
+  </si>
+  <si>
+    <t>Hinkley Point</t>
+  </si>
+  <si>
+    <t>Holyhead</t>
+  </si>
+  <si>
+    <t>Ilfracombe</t>
+  </si>
+  <si>
+    <t>Immingham</t>
+  </si>
+  <si>
+    <t>Port Erin</t>
+  </si>
+  <si>
+    <t>Port Ellen (Islay)</t>
+  </si>
+  <si>
+    <t>St. Helier (Jersey)</t>
+  </si>
+  <si>
+    <t>Kinlochbervie</t>
+  </si>
+  <si>
+    <t>Leith</t>
+  </si>
+  <si>
+    <t>Lerwick</t>
+  </si>
+  <si>
+    <t>Liverpool, Gladstone Dock</t>
+  </si>
+  <si>
+    <t>Llandudno</t>
+  </si>
+  <si>
+    <t>Lowestoft</t>
+  </si>
+  <si>
+    <t>Milford Haven</t>
+  </si>
+  <si>
+    <t>Millport</t>
+  </si>
+  <si>
+    <t>Moray Firth</t>
+  </si>
+  <si>
+    <t>Mumbles</t>
+  </si>
+  <si>
+    <t>Newlyn</t>
+  </si>
+  <si>
+    <t>Newhaven</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>North Shields</t>
+  </si>
+  <si>
+    <t>Portpatrick</t>
+  </si>
+  <si>
+    <t>Portrush</t>
+  </si>
+  <si>
+    <t>Portbury</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Sheerness</t>
+  </si>
+  <si>
+    <t>St. Mary's</t>
+  </si>
+  <si>
+    <t>Stornoway</t>
+  </si>
+  <si>
+    <t>Tobermory</t>
+  </si>
+  <si>
+    <t>Ullapool</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Whitby</t>
+  </si>
+  <si>
+    <t>Wick</t>
+  </si>
+  <si>
+    <t>Workington</t>
   </si>
 </sst>
 </file>
@@ -374,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,6 +593,430 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>51.114389000000003</v>
+      </c>
+      <c r="C10">
+        <v>1.322667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>51.95675</v>
+      </c>
+      <c r="C11">
+        <v>1.3483890000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>52.013750000000002</v>
+      </c>
+      <c r="C12">
+        <v>-4.9831669999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>51.948</v>
+      </c>
+      <c r="C13">
+        <v>1.292111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>54.031638999999998</v>
+      </c>
+      <c r="C14">
+        <v>-2.920417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>51.215249999999997</v>
+      </c>
+      <c r="C15">
+        <v>-3.1343329999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>53.313943999999999</v>
+      </c>
+      <c r="C16">
+        <v>-4.620444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>51.210971999999998</v>
+      </c>
+      <c r="C17">
+        <v>-4.1109439999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>53.631028000000001</v>
+      </c>
+      <c r="C18">
+        <v>-0.186028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>54.085388999999999</v>
+      </c>
+      <c r="C19">
+        <v>-4.7680559999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>55.627417000000001</v>
+      </c>
+      <c r="C20">
+        <v>-6.1900560000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>49.198332999999998</v>
+      </c>
+      <c r="C21">
+        <v>-2.1166670000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>58.456611000000002</v>
+      </c>
+      <c r="C22">
+        <v>-5.0503609999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>55.989832999999997</v>
+      </c>
+      <c r="C23">
+        <v>-3.1816939999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>60.154027999999997</v>
+      </c>
+      <c r="C24">
+        <v>-1.140306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>53.449694000000001</v>
+      </c>
+      <c r="C25">
+        <v>-3.0179999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>53.331667000000003</v>
+      </c>
+      <c r="C26">
+        <v>-3.8252220000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>52.472999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.7508330000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>51.706389000000001</v>
+      </c>
+      <c r="C28">
+        <v>-5.0514720000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>55.749639000000002</v>
+      </c>
+      <c r="C29">
+        <v>-4.9058330000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>57.599167000000001</v>
+      </c>
+      <c r="C30">
+        <v>-4.0022219999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>51.57</v>
+      </c>
+      <c r="C31">
+        <v>-3.975444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>50.103000000000002</v>
+      </c>
+      <c r="C32">
+        <v>-5.5428329999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>50.781778000000003</v>
+      </c>
+      <c r="C33">
+        <v>5.7028000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>51.55</v>
+      </c>
+      <c r="C34">
+        <v>-2.987444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>55.007444</v>
+      </c>
+      <c r="C35">
+        <v>-1.439778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>54.842556000000002</v>
+      </c>
+      <c r="C36">
+        <v>-5.1200279999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>55.206778</v>
+      </c>
+      <c r="C37">
+        <v>-6.6568329999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>51.5</v>
+      </c>
+      <c r="C38">
+        <v>-2.728472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>50.802556000000003</v>
+      </c>
+      <c r="C39">
+        <v>-1.11175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>51.442222000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.74305600000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>49.918472000000001</v>
+      </c>
+      <c r="C41">
+        <v>-6.3164170000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>58.207110999999998</v>
+      </c>
+      <c r="C42">
+        <v>-6.3888889999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>56.623111000000002</v>
+      </c>
+      <c r="C43">
+        <v>-6.064222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>57.895249999999997</v>
+      </c>
+      <c r="C44">
+        <v>-5.1578889999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>50.608499999999999</v>
+      </c>
+      <c r="C45">
+        <v>-2.4479440000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>54.490082999999998</v>
+      </c>
+      <c r="C46">
+        <v>-0.61416700000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>58.440972000000002</v>
+      </c>
+      <c r="C47">
+        <v>-3.086306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>54.650806000000003</v>
+      </c>
+      <c r="C48">
+        <v>-3.5676389999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tidal/locations.xlsx
+++ b/tidal/locations.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tidal/locations.xlsx
+++ b/tidal/locations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Location</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Workington</t>
+  </si>
+  <si>
+    <t>Tide height mean /m</t>
   </si>
 </sst>
 </file>
@@ -488,20 +491,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,8 +517,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -522,8 +531,11 @@
       <c r="C3">
         <v>-2.0744440000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2.5712306900000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -533,8 +545,11 @@
       <c r="C4">
         <v>-2.7149719999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>6.9941937980000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -544,8 +559,11 @@
       <c r="C5">
         <v>-5.6694719999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>2.0530223460000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -555,8 +573,11 @@
       <c r="C6">
         <v>-4.0451670000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>2.7313066670000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -566,8 +587,11 @@
       <c r="C7">
         <v>-1.8748610000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1.598975904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -577,8 +601,11 @@
       <c r="C8">
         <v>1.301639</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>2.9429599999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -588,8 +615,11 @@
       <c r="C9">
         <v>-4.1852499999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>3.4120101009999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -599,8 +629,11 @@
       <c r="C10">
         <v>1.322667</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>3.7653536590000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -610,8 +643,11 @@
       <c r="C11">
         <v>1.3483890000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>2.095835938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -621,8 +657,11 @@
       <c r="C12">
         <v>-4.9831669999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2.7535906739999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -632,8 +671,11 @@
       <c r="C13">
         <v>1.292111</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>2.1833605440000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -643,8 +685,11 @@
       <c r="C14">
         <v>-2.920417</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>5.1773687150000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -654,8 +699,11 @@
       <c r="C15">
         <v>-3.1343329999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>6.2526648040000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -665,8 +713,11 @@
       <c r="C16">
         <v>-4.620444</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>3.2917461139999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -676,8 +727,11 @@
       <c r="C17">
         <v>-4.1109439999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>5.0100654760000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -687,8 +741,11 @@
       <c r="C18">
         <v>-0.186028</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>4.1818588239999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -698,8 +755,11 @@
       <c r="C19">
         <v>-4.7680559999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2.910541872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -709,8 +769,11 @@
       <c r="C20">
         <v>-6.1900560000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0.50002985099999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -720,8 +783,11 @@
       <c r="C21">
         <v>-2.1166670000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>6.0422254899999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -731,8 +797,11 @@
       <c r="C22">
         <v>-5.0503609999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>2.8965872090000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -742,8 +811,11 @@
       <c r="C23">
         <v>-3.1816939999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>3.1994945650000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -753,8 +825,11 @@
       <c r="C24">
         <v>-1.140306</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1.323415094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -764,8 +839,11 @@
       <c r="C25">
         <v>-3.0179999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>5.3256203209999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -775,8 +853,11 @@
       <c r="C26">
         <v>-3.8252220000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>4.0723108809999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -786,8 +867,11 @@
       <c r="C27">
         <v>1.7508330000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1.6717450979999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -797,8 +881,11 @@
       <c r="C28">
         <v>-5.0514720000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>3.9083027029999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -808,8 +895,11 @@
       <c r="C29">
         <v>-4.9058330000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>2.0151343279999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -819,8 +909,11 @@
       <c r="C30">
         <v>-4.0022219999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>2.5390178570000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -830,8 +923,11 @@
       <c r="C31">
         <v>-3.975444</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>5.2215499999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -841,8 +937,11 @@
       <c r="C32">
         <v>-5.5428329999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>3.2294744899999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -852,8 +951,11 @@
       <c r="C33">
         <v>5.7028000000000002E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>3.6570394089999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -863,8 +965,11 @@
       <c r="C34">
         <v>-2.987444</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>6.1450617279999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -874,8 +979,11 @@
       <c r="C35">
         <v>-1.439778</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>2.9779547740000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -885,8 +993,11 @@
       <c r="C36">
         <v>-5.1200279999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>2.1923971629999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -896,8 +1007,11 @@
       <c r="C37">
         <v>-6.6568329999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1.2916049999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -907,8 +1021,11 @@
       <c r="C38">
         <v>-2.728472</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>7.0839605260000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -918,8 +1035,11 @@
       <c r="C39">
         <v>-1.11175</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>2.8960202019999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -929,8 +1049,11 @@
       <c r="C40">
         <v>0.74305600000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>3.0683703699999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -940,8 +1063,11 @@
       <c r="C41">
         <v>-6.3164170000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>3.1931867469999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -951,8 +1077,11 @@
       <c r="C42">
         <v>-6.3888889999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>2.92360452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -962,8 +1091,11 @@
       <c r="C43">
         <v>-6.064222</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>2.746514286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -973,8 +1105,11 @@
       <c r="C44">
         <v>-5.1578889999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>3.0992211059999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -984,8 +1119,11 @@
       <c r="C45">
         <v>-2.4479440000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1.1488930479999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -995,8 +1133,11 @@
       <c r="C46">
         <v>-0.61416700000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>3.440077348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1006,8 +1147,11 @@
       <c r="C47">
         <v>-3.086306</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>2.074290816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1016,6 +1160,9 @@
       </c>
       <c r="C48">
         <v>-3.5676389999999998</v>
+      </c>
+      <c r="D48">
+        <v>4.5307950000000003</v>
       </c>
     </row>
   </sheetData>
